--- a/laboratory_work_7/Data_Set_6.xlsx
+++ b/laboratory_work_7/Data_Set_6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. HCT 2017_2018\3. PD\2. PD for ICT 2013 Computational Thinking and Coding\Ossama\W5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Education\Data_Science_Technologies\laboratory_work_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661BCB05-2B55-480B-9F01-E47F34E0802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -582,51 +583,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -682,7 +683,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -788,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -941,7 +942,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +957,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1044,7 +1045,7 @@
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2">
@@ -1264,7 +1265,7 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2">

--- a/laboratory_work_7/Data_Set_6.xlsx
+++ b/laboratory_work_7/Data_Set_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Education\Data_Science_Technologies\laboratory_work_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661BCB05-2B55-480B-9F01-E47F34E0802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA14D1-9144-4346-BF98-3E81B732F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,7 +942,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N99"/>
+      <selection activeCell="A9" sqref="A9:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
